--- a/test_data/web_ui.xlsx
+++ b/test_data/web_ui.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7C38D11A-0AA1-4A65-A7A5-51D7FC84D852}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>case_no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,13 +51,33 @@
   </si>
   <si>
     <t>bhjbgayufbab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sueecss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1q2w#E$R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,11 +407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -402,7 +422,7 @@
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,51 +432,80 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>12345568</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="!@#$%^&amp;*^&amp;*()" xr:uid="{78252293-FFBB-4000-8DA9-4A66C8A925C1}"/>
+    <hyperlink ref="C3" r:id="rId1" display="!@#$%^&amp;*^&amp;*()"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
